--- a/logboek-dataverwerkingen/openapi-rvva/media/datamodel/canoniek.xlsx
+++ b/logboek-dataverwerkingen/openapi-rvva/media/datamodel/canoniek.xlsx
@@ -1,3 +1,984 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5552814-E0C3-4A9F-9341-3E1F7FE68AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="10470" firstSheet="2" activeTab="2" xr2:uid="{3A48A1FC-B69F-413A-8178-ED5C13D4ABB5}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Logboek" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <definedNames>
+    <definedName name="attribute" localSheetId="0">Overall!$A$25</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="228">
+  <si>
+    <t>Attribuutnaam EN</t>
+  </si>
+  <si>
+    <t>Definitie EN</t>
+  </si>
+  <si>
+    <t>Attribuutnaam NL</t>
+  </si>
+  <si>
+    <t>Definitie NL</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>Noodzakelijkheid</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>Voorbeeld</t>
+  </si>
+  <si>
+    <t>Verplicht</t>
+  </si>
+  <si>
+    <t>Gebruikt in</t>
+  </si>
+  <si>
+    <t>Enumeratiewaarden</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>attribute </t>
+  </si>
+  <si>
+    <t>Attributes in the form of key value pairs.</t>
+  </si>
+  <si>
+    <t>attribuut</t>
+  </si>
+  <si>
+    <t>Attributen in de vorm van key value pairs.</t>
+  </si>
+  <si>
+    <t>Organisaties hebben de vrijheid om zelf key value pairs te bepalen als dit bijdraagt aan de inzichtelijkheid van een gegevensverwerkingsactie.</t>
+  </si>
+  <si>
+    <t>Vanuit de standaard is het onmogelijk om alle attribuutsoorten te definiëren die belangrijk zijn voor de inzichtelijkheid van een gegevensverwerkingsactie. Daarom is er in de standaard rekening gehouden met een mogelijkheid om per organisatie of per systeem eigen attribuutsoorten te bepalen.</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Logboek</t>
+  </si>
+  <si>
+    <t>dataSubject</t>
+  </si>
+  <si>
+    <t>refers to any individual person who can be identified, directly or indirectly, via an identifier such as a name, an ID number, location data, or via factors specific to the person's physical, physiological, genetic, mental, economic, cultural or social identity.</t>
+  </si>
+  <si>
+    <t>betrokkene</t>
+  </si>
+  <si>
+    <t>de geïdentificeerde of identificeerbare natuurlijk persoon op wie de verwerkte en/of de te verwerken persoonsgegevens betrekking hebben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bij het gebruik van dataSubject (betrokkene) moet rekening gehouden met artikel 32-1a: Rekening houdend met de stand van de techniek, de uitvoeringskosten, alsook met de aard, de omvang, de context en de verwerkingsdoeleinden en de qua waarschijnlijkheid en ernst uiteenlopende risico's voor de rechten en vrijheden van personen, treffen de verwerkingsverantwoordelijke en de verwerker passende technische en organisatorische maatregelen om een op het risico afgestemd beveiligingsniveau te waarborgen, die, waar passend, onder meer het volgende omvatten: 
+	a) de pseudonimisering en versleuteling van persoonsgegevens. </t>
+  </si>
+  <si>
+    <t>Gegevensverwerkingsacties moeten per betrokkene worden opgeslagen. Indien er gevraagd wordt om de gegevensverwerkingsacties van een betrokkene kan er niet gerapporteerd worden zonder dit attribuutsoort.</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>6e8bc430-9c3a-11d9-9669-0800200c9a66</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Niet van toepassing</t>
+  </si>
+  <si>
+    <t>artikel 32-1a</t>
+  </si>
+  <si>
+    <t>dataSubjectCategories </t>
+  </si>
+  <si>
+    <t>A classification of data subjects relevant to an organization. Can be used to categorize business-specific and regulation-specific categories. Examples: Employees Customers Suppliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorieënBetrokkenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een beschrijving van de categorieën van personen van wie gegevens verwerkt worden. </t>
+  </si>
+  <si>
+    <t>In AVG artikel 30-1c wordt de volgende maatregel benoemd: Elke verwerkingsverantwoordelijke en, in voorkomend geval, de vertegenwoordiger van de verwerkingsverantwoordelijke houdt een register van de verwerkingsactiviteiten die onder hun verantwoordelijkheid plaatsvinden. Dat register bevat alle volgende gegevens: een beschrijving van de categorieën van betrokkenen en van de categorieën van persoonsgegevens.</t>
+  </si>
+  <si>
+    <t>Enumwaarde</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afhankelijk van het type systeem en betrokken actoren. Er kunnen meerdere categorieën van toepassing zijn. </t>
+  </si>
+  <si>
+    <t>Artikel 30-1c</t>
+  </si>
+  <si>
+    <t>dplCoreProcessingActivityId </t>
+  </si>
+  <si>
+    <t>Reference to Register with more information about the processing activity.</t>
+  </si>
+  <si>
+    <t>dplCoreVerwerkingsactiviteitId</t>
+  </si>
+  <si>
+    <t>Verwijzing naar Register met meer informatie over de verwerkingsactiviteit.</t>
+  </si>
+  <si>
+    <t>Elke gegevensverwerking in het logboek moet in lijn zijn met de vooraf gedefinieerde verwerkingsactiviteiten in het register (zie AVG artikel 30). Om te voorkomen dat alle attribuutsoorten van het register gedupliceerd worden in het logboek, wordt in het logboek alleen verwezen naar het VerwerkingsactiviteitId van het register.</t>
+  </si>
+  <si>
+    <t>Register en Logboek</t>
+  </si>
+  <si>
+    <t>Artikel 30</t>
+  </si>
+  <si>
+    <t>endTime </t>
+  </si>
+  <si>
+    <t>Timestamp representing the end of a data processing logging action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eindTijd</t>
+  </si>
+  <si>
+    <t>Tijdstempel die het einde van een logboekactie voor gegevensverwerking vertegenwoordigt.</t>
+  </si>
+  <si>
+    <t>Een logboekregel wordt pas weggeschreven in het logboek als de volledige transactie (succesvol of niet succesvol) is afgerond.</t>
+  </si>
+  <si>
+    <t>Bij een inzageverzoek van de Betrokkene ten aanzien van gegevensverwerkingsacties, wordt ook een tijdsspanne gevraagd. Alleen de details van een gegevenswerkingsactie binnen opgegeven tijdsspanne worden gerapporteerd. Zonder begin- en eindtijd van een gegevensverwerkingsactie is het onmogelijk de juiste details op te leveren.</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>2025-02-23T00:00:00</t>
+  </si>
+  <si>
+    <t>envisagedTimeLimit </t>
+  </si>
+  <si>
+    <t>the maximum period for which the personal data is necessary to achieve the purpose of the processing or no longer than the period anchored in sector-specific legislation.</t>
+  </si>
+  <si>
+    <t>bewaarTermijn</t>
+  </si>
+  <si>
+    <t>de maximale periode waarin de persoonsgegevens noodzakelijk worden bewaard om het doel van de verwerking te bereiken of niet langer dan de termijn die verankerd is in sectorspecifieke wetgeving.</t>
+  </si>
+  <si>
+    <t>Als het bewaartermijn van een bewaard gegeven verstreken is, dan moet het gegeven worden verwijderd uit het logboek.</t>
+  </si>
+  <si>
+    <t>In AVG artikel 30-1f wordt de volgende maatregel benoemd: Elke verwerkingsverantwoordelijke en, in voorkomend geval, de vertegenwoordiger van de verwerkingsverantwoordelijke houdt een register van de verwerkingsactiviteiten die onder hun verantwoordelijkheid plaatsvinden. Dat register bevat alle volgende gegevens: indien mogelijk, de beoogde termijnen waarbinnen de verschillende categorieën van gegevens moeten worden gewist. De concrete datum waarop een gegevensverwerking moet worden gewist uit het logboek, kan bepaald worden door middel van het bewaartermijn in het register en de eindtijd waarop een gegevensverwerking is gelogd in het logboek. Daardoor is het onnodig om de concrete verwijderdatum van een gegevensverwerking te registreren in het logboek.</t>
+  </si>
+  <si>
+    <t>foreignOperation.entity </t>
+  </si>
+  <si>
+    <t>Reference to external entity.</t>
+  </si>
+  <si>
+    <t>entiteit</t>
+  </si>
+  <si>
+    <t>Verwijzing naar externe entiteit.</t>
+  </si>
+  <si>
+    <t>Indien er voor een verwerking ook een logging heeft plaatsgevonden door een externe informatiebron, dan wordt er een verwijzing aangemaakt om de gegevens van deze logging in te kunnen zien.</t>
+  </si>
+  <si>
+    <t>Indien het noodzakelijk is ook gegevensverwerkingsacties van een externe gegevensbron te gebruiken, dan wordt een unieke referentie naar deze externe gegevensverwerkingsactie geregistreerd in het logboek. Door alleen te verwijzen naar de externe gegevensverwerkingsactie, kan voorkomen worden dat gegevens gedupliceerd worden opgeslagen in het logboek.</t>
+  </si>
+  <si>
+    <t>foo://techtarget.com:8042/over/there?name=parrot#beak</t>
+  </si>
+  <si>
+    <t>foreignOperation.operationId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique name given to a foreign processing operation. </t>
+  </si>
+  <si>
+    <t>externeActie.actieId</t>
+  </si>
+  <si>
+    <t>Identificator die de externe verwerkingsactie uniek identificeert.</t>
+  </si>
+  <si>
+    <t>Externe verwerkingsacties kunnen een onderdeel zijn van de totale verwerkingsactie. OperationId is in dit geval een attribuutsoort van het objecttype foreignOperation.</t>
+  </si>
+  <si>
+    <t>Indien het noodzakelijk is ook gegevensverwerkingsacties van een externe gegevensbron te gebruiken, dan wordt een unieke referentie naar deze externe gegevensverwerkingsactie geregistreerd in het logboek. Het foreignOperation.operationId refereert naar één specifieke gegevensverwerkingsactie door de externe gegevensbron.  Door alleen te verwijzen naar de externe gegevensverwerkingsactie, kan voorkomen worden dat gegevens gedupliceerd worden opgeslagen in het logboek.</t>
+  </si>
+  <si>
+    <t>legalBasis </t>
+  </si>
+  <si>
+    <t>The general conditions governing the lawfulness of processing by the controller.</t>
+  </si>
+  <si>
+    <t>grondslag</t>
+  </si>
+  <si>
+    <t>Algemene voorwaarden inzake de rechtmatigheid van verwerking door de verwerkingsverantwoordelijke.</t>
+  </si>
+  <si>
+    <t>De verwerking is alleen rechtmatig indien en voor zover aan ten minste één van de voorwaarden is voldaan.</t>
+  </si>
+  <si>
+    <t>In AVG artikel 6-1 worden de volgende maatregelen benoemd:
+De verwerking is alleen rechtmatig indien en voor zover aan ten minste een van de onderstaande voorwaarden is voldaan:
+a) de betrokkene heeft toestemming gegeven voor de verwerking van zijn persoonsgegevens voor een of meer specifieke doeleinden;
+b) de verwerking is noodzakelijk voor de uitvoering van een overeenkomst waarbij de betrokkene partij is, of om op verzoek van de betrokkene vóór de sluiting van een overeenkomst maatregelen te nemen;
+c) de verwerking is noodzakelijk om te voldoen aan een wettelijke verplichting die op de verwerkingsverantwoordelijke rust;
+d) de verwerking is noodzakelijk om de vitale belangen van de betrokkene of van een andere natuurlijke persoon te beschermen;
+e) de verwerking is noodzakelijk voor de vervulling van een taak van algemeen belang of van een taak in het kader van de uitoefening van het openbaar gezag dat aan de verwerkingsverantwoordelijke is opgedragen;
+f) de verwerking is noodzakelijk voor de behartiging van de gerechtvaardigde belangen van de verwerkingsverantwoordelijke of van een derde, behalve wanneer de belangen of de grondrechten en de fundamentele vrijheden van de betrokkene die tot bescherming van persoonsgegevens nopen, zwaarder wegen dan die belangen, met name wanneer de betrokkene een kind is.
+Er moet worden aangetoond dat de verwerking rechtmatig op basis van één of meer grondslagen.</t>
+  </si>
+  <si>
+    <t>Enumwaarden</t>
+  </si>
+  <si>
+    <t>Legal obligation</t>
+  </si>
+  <si>
+    <t>Enumeratiewaarden EN: 
+-	Consent data subject (6-1a)
+-	Necessary contract data subject (6-1b)
+-	Legal obligation (6-1c)
+-	Protect vital interests (6-1d)
+-	Performance task (6-1e) 
+-	Legitimate interests (6-1f)
+Enumeratiewaarden NL: 
+-	Toestemming betrokkene (6-1a)
+-	Uitvoering overeenkomst betrokkene (6-1b)
+-	Wettelijke verplichting (6-1c)
+-	Vitaal belang (6-1d)
+-	Algemeen belang (6-1e)
+-	Gerechtvaardigd belang (6-1f)</t>
+  </si>
+  <si>
+    <t>Artikel 6</t>
+  </si>
+  <si>
+    <t>LegalBasisComment </t>
+  </si>
+  <si>
+    <t>More detailed explanation of the general conditions governing the lawfulness of processing by the controller.</t>
+  </si>
+  <si>
+    <t>grondslagUitleg</t>
+  </si>
+  <si>
+    <t>Uitleg bij de algemene voorwaarden inzake de rechtmatigheid van verwerking door de verwerkingsverantwoordelijke.</t>
+  </si>
+  <si>
+    <t>Organisaties mogen persoonsgegevens alleen verzamelen met een gerechtvaardigd doel. Dat doel moet specifiek zijn en vooraf uitdrukkelijk zijn omschreven. Artikel 5-1 van de AVG benoemt (onder andere) de volgende maateregelen:
+Persoonsgegevens moeten:
+a) worden verwerkt op een wijze die ten aanzien van de betrokkene rechtmatig, behoorlijk en transparant is ("rechtmatigheid, behoorlijkheid en transparantie");
+b) voor welbepaalde, uitdrukkelijk omschreven en gerechtvaardigde doeleinden worden verzameld en mogen vervolgens niet verder op een met die doeleinden onverenigbare wijze worden verwerkt; de verdere verwerking met het oog op archivering in het algemeen belang, wetenschappelijk of historisch onderzoek of statistische doeleinden wordt overeenkomstig artikel 89, lid 1, niet als onverenigbaar met de oorspronkelijke doeleinden beschouwd ("doelbinding");
+c) toereikend zijn, ter zake dienend en beperkt tot wat noodzakelijk is voor de doeleinden waarvoor zij worden verwerkt ("minimale gegevensverwerking");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CharacterString</t>
+  </si>
+  <si>
+    <t>Paspoortenregeling Nederland</t>
+  </si>
+  <si>
+    <t>Artikel 5</t>
+  </si>
+  <si>
+    <t>operationId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique name given to a processing operation. </t>
+  </si>
+  <si>
+    <t>actieId</t>
+  </si>
+  <si>
+    <t>Identificator die de gegevensverwerkingsactie uniek identificeert.</t>
+  </si>
+  <si>
+    <t>Het iD is betekenisloos, kent geen volgorde en is uniek over alle systemen in de wereld.</t>
+  </si>
+  <si>
+    <t>Elke gegevensverwerkingsactie wordt uniek opgeslagen in het logboek. Indien een rapportage moet worden gemaakt voor de betrokkene, moet de unieke gegevensverwerkingsactie opgehaald kunnen worden uit het logboek. Het ophalen van de gegevens gaat op basis van het operationId, dus zonder dit gegeven is het aanmaken van een rapportage niet mogelijk.</t>
+  </si>
+  <si>
+    <t>operationName </t>
+  </si>
+  <si>
+    <t>specific operation addressed, or referred to.</t>
+  </si>
+  <si>
+    <t>actieNaam</t>
+  </si>
+  <si>
+    <t>naam van een specifieke gegevensverwerkingsactie.</t>
+  </si>
+  <si>
+    <t>Aanbevolen wordt alle gegevensverwerkingsacties te beschrijven als een werkwoord (werkwoordsvorm infinitief) gevolgd door een zelfstandig naamwoord.</t>
+  </si>
+  <si>
+    <t>Om duidelijk te maken aan de betrokkene (in het geval van een aanvraag gegevensinkijk) wat er concreet is gebeurd bij een gegevensverwerkingsactie, wordt er een operationName gedefinieerd. Zie ook artikel 4 van de AVG waarin de definitie van ‘verwerking’ wordt genoemd:
+een bewerking of een geheel van bewerkingen met betrekking tot persoonsgegevens of een geheel van persoonsgegevens, al dan niet uitgevoerd via geautomatiseerde procedés, zoals het verzamelen, vastleggen, ordenen, structureren, opslaan, bijwerken of wijzigen, opvragen, raadplegen, gebruiken, verstrekken door middel van doorzending, verspreiden of op andere wijze ter beschikking stellen, aligneren of combineren, afschermen, wissen of vernietigen van gegevens.</t>
+  </si>
+  <si>
+    <t>Opslaan persoonsgegevens</t>
+  </si>
+  <si>
+    <t>Artikel 4</t>
+  </si>
+  <si>
+    <t>parentDplCoreProcessingActivityId </t>
+  </si>
+  <si>
+    <t>a parent is one class, and a child is another class that inherits all of the attributes and functions assigned to the parent class. The parentId refers to the parent class.</t>
+  </si>
+  <si>
+    <t>parentDplCoreVerwerkingsactiviteitId</t>
+  </si>
+  <si>
+    <t>een parent is één klasse, en een child is een andere klasse die alle attributen en functies overerft die aan de bovenliggende klasse zijn toegewezen. De parentId verwijst naar de bovenliggende klasse.</t>
+  </si>
+  <si>
+    <t>Een verwerkingsactiviteit kan onderdeel zijn een andere verwerkingsactiviteit. Op deze manier ontstaat er een hiërarchie van verwerkingsactiviteiten.</t>
+  </si>
+  <si>
+    <t>Een bepaalde verwerkingsactiviteit kan een onderdeel zijn van een andere verwerkingsactiviteit. Door gebruik te maken van een ‘parent/child’-structuur, hoeven er geen nieuwe attributen gedefinieerd te worden om een hiërarchie van verwerkingsactiviteiten te creëren.</t>
+  </si>
+  <si>
+    <t>parentOperationId </t>
+  </si>
+  <si>
+    <t>parentActieId</t>
+  </si>
+  <si>
+    <t>Een gegevensverwerkingsactie kan onderdeel zijn een andere verwerkingsactie. Op deze manier ontstaat er een hiërarchie van gegevensverwerkingsacties.</t>
+  </si>
+  <si>
+    <t>Een bepaalde verwerkingsactie kan een onderdeel zijn van een andere verwerkingsactie. Door gebruik te maken van een ‘parent/child’-structuur, hoeven er geen nieuwe attributen gedefinieerd te worden om een hiërarchie van gegevensverwerkingsacties te creëren.</t>
+  </si>
+  <si>
+    <t>personalDataCategories </t>
+  </si>
+  <si>
+    <t>Category of information relating to an identified or identifiable natural person (‘data subject’); an identifiable natural person is one who can be identified, directly or indirectly, in particular by reference to an identifier such as a name, an identification number, location data, an online identifier or to one or more factors specific to the physical, physiological, genetic, mental, economic, cultural or social identity of that natural person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorieënPersoonsgegevens</t>
+  </si>
+  <si>
+    <t>Categorieën van Persoonsgegevens zijn alle gegevens die betrekking hebben op een geïdentificeerde of identificeerbare levende natuurlijke persoon. Losse gegevens die samengevoegd kunnen leiden tot de identificatie van een bepaalde persoon vormen ook persoonsgegevens.</t>
+  </si>
+  <si>
+    <t>Verwerking van persoonsgegevens waaruit ras of etnische afkomst, politieke opvattingen, religieuze of levensbeschouwelijke overtuigingen, of het lidmaatschap van een vakbond blijken, en verwerking van genetische gegevens, biometrische gegevens met het oog op de unieke identificatie van een persoon, of gegevens over gezondheid, of gegevens met betrekking tot iemands seksueel gedrag of seksuele gerichtheid zijn verboden.</t>
+  </si>
+  <si>
+    <t>Nummer van identiteitskaart</t>
+  </si>
+  <si>
+    <t>purpose </t>
+  </si>
+  <si>
+    <t>Personal data may only be processed for specified, explicit and legitimate purposes and may not be further processed in a manner incompatible with those purposes.</t>
+  </si>
+  <si>
+    <t>doelEinde</t>
+  </si>
+  <si>
+    <t>Persoonsgegevens mogen slechts worden verwerkt voor welbepaalde, uitdrukkelijk omschreven en gerechtvaardigde doeleinden en mogen vervolgens niet verder op een met die doeleinden onverenigbare wijze worden verwerkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persoonsgegevens mogen alleen verwerken als je vóóraf de specifieke doeleinden voor de verwerking bepaald zijn. </t>
+  </si>
+  <si>
+    <t>In AVG artikel 5-1b wordt de volgende maatregel benoemd: Persoonsgegevens moeten: voor welbepaalde, uitdrukkelijk omschreven en gerechtvaardigde doeleinden worden verzameld en mogen vervolgens niet verder op een met die doeleinden onverenigbare wijze worden verwerkt; de verdere verwerking met het oog op archivering in het algemeen belang, wetenschappelijk of historisch onderzoek of statistische doeleinden wordt overeenkomstig artikel 89, lid 1, niet als onverenigbaar met de oorspronkelijke doeleinden beschouwd („doelbinding”).</t>
+  </si>
+  <si>
+    <t>CharacterString</t>
+  </si>
+  <si>
+    <t>Het aanvragen, afgeven en innemen van reisdocumenten en het verwerken van kennisgevingen van het in het buitenland afgegeven reisdocumenten.</t>
+  </si>
+  <si>
+    <t>recipientsCategories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories of natural or legal person, public authority, agency or another body, to which the personal data are disclosed, whether a third party or not. </t>
+  </si>
+  <si>
+    <t>categorieënOntvangers</t>
+  </si>
+  <si>
+    <t>Categorieën van natuurlijke of rechtspersonen, overheidsinstanties, agentschap of andere instanties waaraan de persoonsgegevens worden bekendgemaakt, al dan niet een derde partij.</t>
+  </si>
+  <si>
+    <t>In AVG artikel 30-1d wordt de volgende maatregel benoemd: Elke verwerkingsverantwoordelijke en, in voorkomend geval, de vertegenwoordiger van de verwerkingsverantwoordelijke houdt een register van de verwerkingsactiviteiten die onder hun verantwoordelijkheid plaatsvinden. Dat register bevat alle volgende gegevens: de categorieën van ontvangers aan wie de persoonsgegevens zijn of zullen worden verstrekt, onder meer ontvangers in derde landen of internationale organisaties.</t>
+  </si>
+  <si>
+    <t>Aanvragers, rechthebbenden</t>
+  </si>
+  <si>
+    <t>resource.attribute </t>
+  </si>
+  <si>
+    <t>informatiebron.attribuut</t>
+  </si>
+  <si>
+    <t>Attribuutsoorten in de vorm van key value pairs.</t>
+  </si>
+  <si>
+    <t>Organisaties hebben de vrijheid om zelf key value pairs te bepalen als dit bijdraagt aan de inzichtelijkheid voor de logging van een gegevensverwerkingsactie. Naast naam en versie van de informatiebron, kan de organisatie andere attribuutsoorten definiëren ten aanzien van de informatiebron.</t>
+  </si>
+  <si>
+    <t>In AVG overweging 61 wordt de volgende maatregel benoemd: De informatie over de verwerking van persoonsgegevens betreffende de betrokkene dient hem te worden meegedeeld bij het verzamelen bij de betrokkene van de gegevens of, indien de gegevens uit een andere bron zijn verkregen, binnen een redelijke termijn, die afhangt van de omstandigheden van het geval. Wanneer de persoonsgegevens rechtmatig aan een andere ontvanger kunnen worden verstrekt, dient de betrokkene te worden meegedeeld wanneer de persoonsgegevens voor het eerst aan de ontvanger worden verstrekt. Wanneer de verwerkingsverantwoordelijke voornemens is de persoonsgegevens te verwerken met een ander doel dan dat waarvoor zij zijn verzameld, moet de verwerkingsverantwoordelijke de betrokkene vóór die verdere verwerking informatie over dat andere doel en andere noodzakelijke informatie verstrekken. Wanneer de oorsprong van de persoonsgegevens niet aan de betrokkene kan worden meegedeeld omdat verschillende bronnen zijn gebruikt, moet algemene informatie worden verstrekt. De organisatie kan meerdere attribuutsoorten definiëren indien dit preciezere informatie oplevert ten aanzien van de gegevensbron.</t>
+  </si>
+  <si>
+    <t>Overweging 61</t>
+  </si>
+  <si>
+    <t>resource.name </t>
+  </si>
+  <si>
+    <t>name of any tangible or intangible asset capable of generating, transmitting, receiving, processing, or representing data in electronic form, where the asset is owned, licensed, operated, managed, or made available by, or otherwise used by, a data processing organisation.</t>
+  </si>
+  <si>
+    <t>informatiebron.naam</t>
+  </si>
+  <si>
+    <t>naam van een materieel of immaterieel bezit dat gegevens in elektronische vorm kan genereren, verzenden, ontvangen, verwerken of vertegenwoordigen, waarbij het actief eigendom is van, in licentie is gegeven, wordt geëxploiteerd, beheerd of beschikbaar wordt gesteld door, of anderszins wordt gebruikt door, een gegevensverwerkingsorganisatie.</t>
+  </si>
+  <si>
+    <t>Naam (name) is een attribuutsoort van het objecttype Informatiebron (Resource).</t>
+  </si>
+  <si>
+    <t>In AVG grond 61 wordt de volgende maatregel benoemd: De informatie over de verwerking van persoonsgegevens betreffende de betrokkene dient hem te worden meegedeeld bij het verzamelen bij de betrokkene van de gegevens of, indien de gegevens uit een andere bron zijn verkregen, binnen een redelijke termijn, die afhangt van de omstandigheden van het geval. Wanneer de persoonsgegevens rechtmatig aan een andere ontvanger kunnen worden verstrekt, dient de betrokkene te worden meegedeeld wanneer de persoonsgegevens voor het eerst aan de ontvanger worden verstrekt. Wanneer de verwerkingsverantwoordelijke voornemens is de persoonsgegevens te verwerken met een ander doel dan dat waarvoor zij zijn verzameld, moet de verwerkingsverantwoordelijke de betrokkene vóór die verdere verwerking informatie over dat andere doel en andere noodzakelijke informatie verstrekken. Wanneer de oorsprong van de persoonsgegevens niet aan de betrokkene kan worden meegedeeld omdat verschillende bronnen zijn gebruikt, moet algemene informatie worden verstrekt.</t>
+  </si>
+  <si>
+    <t>Vergunningenadministratie</t>
+  </si>
+  <si>
+    <t>resource.version </t>
+  </si>
+  <si>
+    <t>version of any tangible or intangible asset capable of generating, transmitting, receiving, processing, or representing data in electronic form, where the asset is owned, licensed, operated, managed, or made available by, or otherwise used by, a data processing organisation.</t>
+  </si>
+  <si>
+    <t>informatiebron.versie</t>
+  </si>
+  <si>
+    <t>Versie (version) is een attribuutsoort van het objecttype Informatiebron (Resource).</t>
+  </si>
+  <si>
+    <t>In AVG grond 61 wordt de volgende maatregel benoemd: De informatie over de verwerking van persoonsgegevens betreffende de betrokkene dient hem te worden meegedeeld bij het verzamelen bij de betrokkene van de gegevens of, indien de gegevens uit een andere bron zijn verkregen, binnen een redelijke termijn, die afhangt van de omstandigheden van het geval. Wanneer de persoonsgegevens rechtmatig aan een andere ontvanger kunnen worden verstrekt, dient de betrokkene te worden meegedeeld wanneer de persoonsgegevens voor het eerst aan de ontvanger worden verstrekt. Wanneer de verwerkingsverantwoordelijke voornemens is de persoonsgegevens te verwerken met een ander doel dan dat waarvoor zij zijn verzameld, moet de verwerkingsverantwoordelijke de betrokkene vóór die verdere verwerking informatie over dat andere doel en andere noodzakelijke informatie verstrekken. Wanneer de oorsprong van de persoonsgegevens niet aan de betrokkene kan worden meegedeeld omdat verschillende bronnen zijn gebruikt, moet algemene informatie worden verstrekt. Van sommige informatiebronnen zijn meerdere versies aanwezig. In dit geval is de vermelding van de versie van deze informatiebron een preciezere definitie.</t>
+  </si>
+  <si>
+    <t>1.0.1.e</t>
+  </si>
+  <si>
+    <t>startTime </t>
+  </si>
+  <si>
+    <t>Timestamp representing the start of a data processing logging action.</t>
+  </si>
+  <si>
+    <t>startTijd</t>
+  </si>
+  <si>
+    <t>Tijdstempel die het begin van een logboekactie voor gegevensverwerking vertegenwoordigt.</t>
+  </si>
+  <si>
+    <t>Bij een inzageverzoek van de Betrokkene ten aanzien van gegevensverwerkingsactie, wordt ook een tijdsspanne gevraagd. Alleen de details van gegevenswerkingactie binnen opgegeven tijdsspanne worden gerapporteerd. Zonder begin- en eindtijd van een gegevensverwerkingactie is het onmogelijk de juiste details op te leveren.</t>
+  </si>
+  <si>
+    <t>statusCode </t>
+  </si>
+  <si>
+    <t>Indicates whether a request has been processed successfully, or not, by the server.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statusCode</t>
+    </r>
+  </si>
+  <si>
+    <t>Geeft aan of een verzoek al dan niet met succes door de server is verwerkt.</t>
+  </si>
+  <si>
+    <t>Als een geautomatiseerd verzoek correct wordt afgehandeld, dan zal de status 'OK' zijn. Bij een foutmelding (ongeacht het type foutmelding) zal de statusCode 'NOK' zijn.</t>
+  </si>
+  <si>
+    <t>Indien een gegevensverwerkingactie heeft plaatsgevonden, is het van belang te weten of deze verwerkingsactie gelukt is of niet. Zonder de statuscode kan er niet worden gerapporteerd aan een betrokkene of een wijziging daadwerkelijk heeft plaatsgevonden.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>0: Unknown
+1: OK
+2: NOK</t>
+  </si>
+  <si>
+    <t>traceId </t>
+  </si>
+  <si>
+    <t>Unique identifier of the request in the system, which adds the possibility of tracing the history of the request in detail.</t>
+  </si>
+  <si>
+    <t>traceerId</t>
+  </si>
+  <si>
+    <t>Unieke identificatie van een bericht in het systeem, waarmee de mogelijkheid ontstaat om de geschiedenis van het bericht in detail te volgen.</t>
+  </si>
+  <si>
+    <t>een trace is het proces waarbij informatie wordt vastgelegd over de stroom van transacties of verzoeken van een applicatie of systeem. Logboekregistratie is doorgaans breder van opzet en legt een breder scala aan gebeurtenissen vast, terwijl tracering meer specifieke informatie biedt over het uitvoeringspad van individuele verzoeken.</t>
+  </si>
+  <si>
+    <t>De traceId is de unieke factor die alle (sub)gegevenswerkingsacties die betrekking hebben op een (hoofd)gegevensverwerkingactie aan elkaar verbindt. Zonder de traceId kan een totaal aan elkaar gelieerde gegevensverwerkingsacties niet worden gerapporteerd.</t>
+  </si>
+  <si>
+    <t>Key value pairs worden verzameld in de klasse Attributes.</t>
+  </si>
+  <si>
+    <t>Een aantal key value attributen zijn noodzakelijk voor de goede werking van de logging of verplicht in de AVG. Deze attributen zijn niet altijd gedefinieerd in OpenTelemetry. Desbetreffende attributen worden verzameld in de klasse Attributes.</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>dpl.core.data_subject_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja (aantal verplichte attributen, maar ook optionele) </t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Ja, indien een Betrokkene onderdeel is van de logging.</t>
+  </si>
+  <si>
+    <t>dpl.core.data_subject_id_type</t>
+  </si>
+  <si>
+    <t>Type of identifying code, such as BSN, employee number, or a URI to a Register that specifies the type.</t>
+  </si>
+  <si>
+    <t>Type van de identificerende code, zoals BSN, personeelsnummer, of een URI naar een Register dat het type specificeert.</t>
+  </si>
+  <si>
+    <t>Aangezien er meerdere types van betrokkeken zijn, moet er ook bepaald worden wat de betekenis is van een Id.</t>
+  </si>
+  <si>
+    <t>Zonder de betekenis van een Id is het onmogelijk een validatie of verificatie uit te voeren op het Id of te bepalen wat de functionele betekenis is van een Id in het geval van een inzagerapport.</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>Nee (Ja indien een Betrokkene van toepassing is op een logging).</t>
+  </si>
+  <si>
+    <t>Artikel 15</t>
+  </si>
+  <si>
+    <t>dpl.core.foreign_operation.processor</t>
+  </si>
+  <si>
+    <t>Indien het noodzakelijk is ook gegevensverwerkingsacties van een externe gegevensbron te gebruiken, dan wordt een unieke referentie naar deze externe gegevensverwerkingsactie geregistreerd in het logboek. Door alleen te verwijzen naar de externe gegevensverwerkingsactie, kan voorkomen worden dat gegevens gedupliceerd worden opgeslagen in het logboek. Ook de Verwerker heeft een verwerkingsregister nodig, door de de linke te leggen met de bron kan bewezen worden dat alle activieteiten zijn uitgevoerd op basis van een Register van Verwerkingsactiviteiten.</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>dpl.core.processing_activity_id</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>exception.message</t>
+  </si>
+  <si>
+    <t>The exception message.</t>
+  </si>
+  <si>
+    <t>Het foutbericht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De verplichting om foutmeldingen te loggen valt onder het principe van verantwoording (artikel 5.2 AVG), wat inhoudt dat een organisatie moet kunnen aantonen dat persoonsgegevens rechtmatig, eerlijk en transparant worden verwerkt en dat deze voldoen aan de andere AVG-principes. </t>
+  </si>
+  <si>
+    <t>Division by zero</t>
+  </si>
+  <si>
+    <t>Ja, als er een fout optreedt en exception.type niet is ingevuld.</t>
+  </si>
+  <si>
+    <t>exception.stacktrace</t>
+  </si>
+  <si>
+    <t>A stacktrace as a string in the natural representation for the language runtime.</t>
+  </si>
+  <si>
+    <t>String van meldingen specifiek voor de gebruikte programmeertaal.</t>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.lang.RuntimeException: Test exception\n at com.example.GenerateTrace.methodB(GenerateTrace.java:13)\n at.....</t>
+  </si>
+  <si>
+    <t>exception.type</t>
+  </si>
+  <si>
+    <t>Type of exception</t>
+  </si>
+  <si>
+    <t>Type foutmelding</t>
+  </si>
+  <si>
+    <t>java.net.ConnectException</t>
+  </si>
+  <si>
+    <t>Ja, als er een fout optreedt en exception.message niet is ingevuld.</t>
+  </si>
+  <si>
+    <t>name </t>
+  </si>
+  <si>
+    <t>span_id</t>
+  </si>
+  <si>
+    <t>Elke gegevensverwerkingsactie wordt uniek opgeslagen in het logboek. Indien een rapportage moet worden gemaakt voor de betrokkene, moet de unieke gegevensverwerkingsactie opgehaald kunnen worden uit het logboek. Het ophalen van de gegevens gaat op basis van het span_id, dus zonder dit gegeven is het aanmaken van een rapportage niet mogelijk.</t>
+  </si>
+  <si>
+    <t>8 byte</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Als een geautomatiseerd verzoek correct wordt afgehandeld, dan zal de status 'Ok' zijn. Bij een foutmelding (ongeacht het type foutmelding) zal de statusCode 'NOK' zijn.</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Unset
+Ok
+Error</t>
+  </si>
+  <si>
+    <t>trace_id</t>
+  </si>
+  <si>
+    <t>16 byte</t>
+  </si>
+  <si>
+    <t>parent_span_id</t>
+  </si>
+  <si>
+    <t>resource.attributes</t>
+  </si>
+  <si>
+    <t>Object consisting of the class Attributes.</t>
+  </si>
+  <si>
+    <t>Object bestaand uit de klasse Attributes.</t>
+  </si>
+  <si>
+    <t>Een object met velden dat gebruikt wordt om een systeem, applicatie of component aan te duiden op een manier die binnen de organisatie gebruikelijk is. Denk hierbij aan velden als naam en versienummer van een applicatie, of een verwijzing naar een record in een CMDB.</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07C4C6B1-D3E4-472A-9436-24939A8DFA5A}" name="Tabel1" displayName="Tabel1" ref="A1:L24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
@@ -68,6 +1049,2910 @@
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDCDCBC-42D3-4D3F-8E0E-DE1B1D8A1797}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0" xr3:uid="{2A79632B-ABDA-5346-96EE-E601FAC8F784}">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="330">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="345">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="409.5">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="345">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="409.5">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="405">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="409.5">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="409.5">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="409.5">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="375">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="409.5">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="255">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="270">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="409.5">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.5">
+      <c r="A17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.5">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.5">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.5">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="409.5">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="345">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="255">
+      <c r="A23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="270">
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{8071D942-7839-4B1D-BA04-C5BA2A99E762}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{5479F91E-CC9E-48B7-A89F-55274F1B53F2}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{E8649A7F-93CC-4B07-BFB0-7D69CCE4C187}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{1CBA0306-6090-4511-80B0-0231C8A82FC4}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{FF88739D-CC05-4CD5-828C-7010DAFEF3DA}"/>
+    <hyperlink ref="M11" r:id="rId6" xr:uid="{53A6D315-CA17-41A8-BDBA-686252E45395}"/>
+    <hyperlink ref="M13" r:id="rId7" xr:uid="{D0DFD3F8-F5F4-4E46-9192-6F1726202641}"/>
+    <hyperlink ref="M16" r:id="rId8" xr:uid="{9F74CA47-DE72-4FAC-BA2A-3833A9E22FA7}"/>
+    <hyperlink ref="M17" r:id="rId9" xr:uid="{5DD72690-4D63-446A-ABF8-DCECD43E57E2}"/>
+    <hyperlink ref="M18" r:id="rId10" xr:uid="{16FC6B00-D8B6-4359-9FD8-34FF2771EBB5}"/>
+    <hyperlink ref="L19" r:id="rId11" xr:uid="{B71F2113-8CF1-4BB6-862A-DEBE8393A8A5}"/>
+    <hyperlink ref="M20" r:id="rId12" xr:uid="{C8D26A77-F857-4640-A120-E688D5479F33}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <tableParts count="1">
+    <tablePart r:id="rId14"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5BBCA-8B39-4F0F-8EBE-CB0CEEDCDBED}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0" xr3:uid="{59993A0C-4C49-589E-B9D3-E8D4E8BF3AA8}">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="90" hidden="1">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="405" hidden="1">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="195">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="90">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="135" hidden="1">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="210">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="120" hidden="1">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="120" hidden="1">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="405">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="285">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="90" hidden="1">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="195" hidden="1">
+      <c r="A13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="225">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="225" hidden="1">
+      <c r="A15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="405">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="255">
+      <c r="A17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="195">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="315" hidden="1">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="405" hidden="1">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="405" hidden="1">
+      <c r="A21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="135" hidden="1">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="105" hidden="1">
+      <c r="A23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="195" hidden="1">
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{B16FA108-0C82-4842-9DE2-D13CA3B24C3C}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{E1782E77-8572-446E-9CE8-4B5CE5533820}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{8A5F44B3-0823-409D-AB70-9D6AE664B154}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{D70D35A7-5D4C-435F-BE88-74F29412029B}"/>
+    <hyperlink ref="L10" r:id="rId5" xr:uid="{2429F980-C198-43AA-8D8F-97BC072EC90F}"/>
+    <hyperlink ref="L11" r:id="rId6" xr:uid="{55A46CB2-B76F-47FB-8A48-43617EC4ED1F}"/>
+    <hyperlink ref="L13" r:id="rId7" xr:uid="{BFF16E69-9549-49A0-9C49-1FE1CBBD0AB5}"/>
+    <hyperlink ref="L16" r:id="rId8" xr:uid="{37D6714A-E014-4131-BA18-722595A74B43}"/>
+    <hyperlink ref="L17" r:id="rId9" xr:uid="{393B14A2-CD9E-46C2-87B4-744A674783C4}"/>
+    <hyperlink ref="L18" r:id="rId10" xr:uid="{78C8DD3C-1817-4898-8B6D-FEDECEBEEEF3}"/>
+    <hyperlink ref="L19" r:id="rId11" xr:uid="{3E3282BA-F043-4238-B37F-C58F227295D9}"/>
+    <hyperlink ref="L20" r:id="rId12" xr:uid="{62194C63-625F-4459-8AAF-03978FE48CE9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId13"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AC96ED-8614-4D90-9132-29C768EFDAC9}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" xr3:uid="{18D30297-640F-56C3-AFF4-B794B273899A}">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="135">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="409.5">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="105">
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="300">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="180">
+      <c r="A6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="180">
+      <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="150">
+      <c r="A8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="165">
+      <c r="A9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="150">
+      <c r="A10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="409.5">
+      <c r="A11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="180">
+      <c r="A12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="180">
+      <c r="A13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="150">
+      <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="255">
+      <c r="A15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="150">
+      <c r="A16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="120.75" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{D7429604-933A-47F0-9546-3591350A3E94}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{F4BD1FCD-1202-4071-B516-70E2C33C5933}"/>
+    <hyperlink ref="J11" r:id="rId3" xr:uid="{B4619293-AD1E-431F-9F60-830B1531FB6C}"/>
+    <hyperlink ref="J4" r:id="rId4" xr:uid="{919D252A-A09F-4030-8D3F-9CFF4E74138B}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{48187B57-6598-41B9-B4AE-ED2B434EFF88}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{A3C5E5E5-60FA-4A1E-B252-D7C56D15ADEE}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{6059E9BC-BA88-45FA-9504-E06E4BD0AF92}"/>
+    <hyperlink ref="J8" r:id="rId8" xr:uid="{58197B53-63F2-4119-83E9-BD1E56CF62DC}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{3F14A6BE-7EA6-49DC-98C8-301C43C9A949}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{86F8B01E-745C-47EC-88FA-22550C2F3BAC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
